--- a/data/comsumption_tax_vat/comsumption_tax_dummy_table.xlsx
+++ b/data/comsumption_tax_vat/comsumption_tax_dummy_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koiti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7506E119-43C1-43D6-B0FE-DA2AB7091B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4847473-C7A6-43D3-80FA-F7DF1B9CFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FB0629A5-6B89-4FBC-BE6F-7C616AFEDC6A}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +460,10 @@
   <dimension ref="A1:E553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B476" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B538" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E479" sqref="E479:E490"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
